--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T14:34:38+00:00</t>
+    <t>2025-08-12T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T15:19:17+00:00</t>
+    <t>2025-08-12T15:54:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T15:54:36+00:00</t>
+    <t>2025-08-12T16:52:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -9,9 +9,6 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$9</definedName>
-  </definedNames>
 </workbook>
 </file>
 
@@ -45,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>SimpleQuantity with UCUM or EDQM quantity unit</t>
+    <t>SimpleQuantity with UCUM or EDQM codes or code not used</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:52:42+00:00</t>
+    <t>2025-08-13T14:10:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>simple quantity datatype requiring a UCUM or EDQM unit</t>
+    <t>simple quantity datatype requiring a UCUM or EDQM code or no code (only unti)</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -256,10 +253,10 @@
 </t>
   </si>
   <si>
-    <t>A fixed quantity (no comparator) with UCUM or EDQM unit</t>
-  </si>
-  <si>
-    <t>The comparator is not used on a SimpleQuantity. The unit SHALL be a UCUM or EDQM code.</t>
+    <t>A fixed quantity (no comparator) with UCUM or EDQM code or no code</t>
+  </si>
+  <si>
+    <t>The comparator is not used on a SimpleQuantity. The code SHALL be a UCUM or EDQM code if used.</t>
   </si>
   <si>
     <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use explicitely excludes the use of the simpleQuantity "comparator" element.</t>
@@ -270,7 +267,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}fr-med-smpl-quant-1:unit system SHALL be UCUM or EDQM {system = `http://standardterms.edqm.eu` or system = `http://unitsofmeasure.org`}</t>
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}fr-med-smpl-quant-1:system SHALL be UCUM or EDQM if code is used {code.exists() and (system = `http://standardterms.edqm.eu` or system = `http://unitsofmeasure.org`)}fr-med-smpl-quant-2:system SHALL not be used if code is not used {code.empty() and system.empty()}</t>
   </si>
   <si>
     <t>SN (see also Range) or CQ</t>
@@ -432,10 +429,10 @@
     <t>System that defines coded unit form</t>
   </si>
   <si>
-    <t>UCUM or EDQM requiered for the identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>UCUM or EDQM requiered.</t>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
     <t xml:space="preserve">qty-3
@@ -454,7 +451,7 @@
     <t>A computer processable form of the unit in some unit representation system.</t>
   </si>
   <si>
-    <t>UCUM or EDQM code required.</t>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
   </si>
   <si>
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
@@ -589,21 +586,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -944,7 +926,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1052,7 +1034,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>86</v>
       </c>
@@ -1158,7 +1140,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>93</v>
       </c>
@@ -1266,7 +1248,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>104</v>
       </c>
@@ -1376,7 +1358,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>114</v>
       </c>
@@ -1486,7 +1468,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>125</v>
       </c>
@@ -1594,7 +1576,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>131</v>
       </c>
@@ -1607,13 +1589,13 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>75</v>
@@ -1702,7 +1684,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>138</v>
       </c>
@@ -1715,7 +1697,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>87</v>
@@ -1813,24 +1795,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL9">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI8">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:10:49+00:00</t>
+    <t>2025-08-13T14:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:38:26+00:00</t>
+    <t>2025-08-13T16:08:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -267,7 +267,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}fr-med-smpl-quant-1:system SHALL be UCUM or EDQM if code is used {code.exists() and (system = `http://standardterms.edqm.eu` or system = `http://unitsofmeasure.org`)}fr-med-smpl-quant-2:system SHALL not be used if code is not used {code.empty() and system.empty()}</t>
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}fr-med-smpl-quant-1:system SHALL be UCUM or EDQM if code is used {code.exists() implies (system = `http://standardterms.edqm.eu` or system = `http://unitsofmeasure.org`)}fr-med-smpl-quant-2:system SHALL not be used if code is not used {code.empty() implies system.empty()}</t>
   </si>
   <si>
     <t>SN (see also Range) or CQ</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T16:08:05+00:00</t>
+    <t>2025-08-13T16:43:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -267,7 +267,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}fr-med-smpl-quant-1:system SHALL be UCUM or EDQM if code is used {code.exists() implies (system = `http://standardterms.edqm.eu` or system = `http://unitsofmeasure.org`)}fr-med-smpl-quant-2:system SHALL not be used if code is not used {code.empty() implies system.empty()}</t>
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}fr-med-smpl-quant-1:system SHALL be UCUM or EDQM if code is used {code.exists() implies (system.exists() and (system = `http://standardterms.edqm.eu` or system = `http://unitsofmeasure.org`))}fr-med-smpl-quant-2:system SHALL not be used if code is not used {code.empty() implies system.empty()}</t>
   </si>
   <si>
     <t>SN (see also Range) or CQ</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T16:43:50+00:00</t>
+    <t>2025-08-14T09:57:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T09:57:22+00:00</t>
+    <t>2025-08-14T13:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T13:55:20+00:00</t>
+    <t>2025-08-14T14:15:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T14:15:22+00:00</t>
+    <t>2025-08-18T13:25:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T13:25:21+00:00</t>
+    <t>2025-08-18T17:36:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T17:36:35+00:00</t>
+    <t>2025-08-19T07:49:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T07:49:07+00:00</t>
+    <t>2025-08-19T08:39:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -267,7 +267,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}fr-med-smpl-quant-1:system SHALL be UCUM or EDQM if code is used {code.exists() implies (system.exists() and (system = `http://standardterms.edqm.eu` or system = `http://unitsofmeasure.org`))}fr-med-smpl-quant-2:system SHALL not be used if code is not used {code.empty() implies system.empty()}</t>
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}fr-med-smpl-quant-1:system SHALL be UCUM or EDQM if code is used {code.exists() implies (system.exists() and (system = 'http://standardterms.edqm.eu' or system = 'http://unitsofmeasure.org'))}fr-med-smpl-quant-2:system SHALL not be used if code is not used {code.empty() implies system.empty()}</t>
   </si>
   <si>
     <t>SN (see also Range) or CQ</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T08:39:15+00:00</t>
+    <t>2025-08-19T16:40:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T16:40:37+00:00</t>
+    <t>2025-08-20T14:11:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T14:11:18+00:00</t>
+    <t>2025-08-20T15:16:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T15:16:03+00:00</t>
+    <t>2025-08-21T07:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:11:23+00:00</t>
+    <t>2025-08-21T07:13:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:13:53+00:00</t>
+    <t>2025-08-21T07:15:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:15:25+00:00</t>
+    <t>2025-08-21T07:17:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:17:21+00:00</t>
+    <t>2025-08-21T07:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:22:00+00:00</t>
+    <t>2025-08-21T07:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrSimpleQuantityMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:24:06+00:00</t>
+    <t>2025-08-21T07:54:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
